--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9938.139327520727</v>
+        <v>10486.12670259619</v>
       </c>
       <c r="AB2" t="n">
-        <v>13597.80066767824</v>
+        <v>14347.5811697533</v>
       </c>
       <c r="AC2" t="n">
-        <v>12300.04565658762</v>
+        <v>12978.26815986814</v>
       </c>
       <c r="AD2" t="n">
-        <v>9938139.327520726</v>
+        <v>10486126.70259619</v>
       </c>
       <c r="AE2" t="n">
-        <v>13597800.66767824</v>
+        <v>14347581.1697533</v>
       </c>
       <c r="AF2" t="n">
         <v>1.434791443064951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>110</v>
+        <v>109.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>12300045.65658762</v>
+        <v>12978268.15986814</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3428.365027142811</v>
+        <v>3721.885014607996</v>
       </c>
       <c r="AB3" t="n">
-        <v>4690.840278927457</v>
+        <v>5092.447274965284</v>
       </c>
       <c r="AC3" t="n">
-        <v>4243.153066342124</v>
+        <v>4606.431254337045</v>
       </c>
       <c r="AD3" t="n">
-        <v>3428365.027142812</v>
+        <v>3721885.014607996</v>
       </c>
       <c r="AE3" t="n">
-        <v>4690840.278927457</v>
+        <v>5092447.274965284</v>
       </c>
       <c r="AF3" t="n">
         <v>2.700828208657311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.11666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4243153.066342124</v>
+        <v>4606431.254337045</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2628.317584243772</v>
+        <v>2882.750806435267</v>
       </c>
       <c r="AB4" t="n">
-        <v>3596.180071950786</v>
+        <v>3944.306831354766</v>
       </c>
       <c r="AC4" t="n">
-        <v>3252.965693154097</v>
+        <v>3567.867723239524</v>
       </c>
       <c r="AD4" t="n">
-        <v>2628317.584243772</v>
+        <v>2882750.806435267</v>
       </c>
       <c r="AE4" t="n">
-        <v>3596180.071950786</v>
+        <v>3944306.831354766</v>
       </c>
       <c r="AF4" t="n">
         <v>3.168293732638304e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.54166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3252965.693154097</v>
+        <v>3567867.723239524</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2294.566689210282</v>
+        <v>2529.422868861081</v>
       </c>
       <c r="AB5" t="n">
-        <v>3139.527373315622</v>
+        <v>3460.867959437258</v>
       </c>
       <c r="AC5" t="n">
-        <v>2839.895287160603</v>
+        <v>3130.567578747124</v>
       </c>
       <c r="AD5" t="n">
-        <v>2294566.689210282</v>
+        <v>2529422.868861082</v>
       </c>
       <c r="AE5" t="n">
-        <v>3139527.373315622</v>
+        <v>3460867.959437259</v>
       </c>
       <c r="AF5" t="n">
         <v>3.416528849724102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.94166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2839895.287160603</v>
+        <v>3130567.578747124</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2093.611968246787</v>
+        <v>2318.67962662724</v>
       </c>
       <c r="AB6" t="n">
-        <v>2864.572258596594</v>
+        <v>3172.519758077226</v>
       </c>
       <c r="AC6" t="n">
-        <v>2591.18150268855</v>
+        <v>2869.738925025662</v>
       </c>
       <c r="AD6" t="n">
-        <v>2093611.968246787</v>
+        <v>2318679.62662724</v>
       </c>
       <c r="AE6" t="n">
-        <v>2864572.258596594</v>
+        <v>3172519.758077226</v>
       </c>
       <c r="AF6" t="n">
         <v>3.575866413498446e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.89166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2591181.50268855</v>
+        <v>2869738.925025661</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1959.492292583006</v>
+        <v>2174.805595111889</v>
       </c>
       <c r="AB7" t="n">
-        <v>2681.063801410915</v>
+        <v>2975.664960883438</v>
       </c>
       <c r="AC7" t="n">
-        <v>2425.186835100936</v>
+        <v>2691.671673388725</v>
       </c>
       <c r="AD7" t="n">
-        <v>1959492.292583006</v>
+        <v>2174805.595111889</v>
       </c>
       <c r="AE7" t="n">
-        <v>2681063.801410915</v>
+        <v>2975664.960883438</v>
       </c>
       <c r="AF7" t="n">
         <v>3.680961402370885e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.6375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2425186.835100936</v>
+        <v>2691671.673388725</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1865.007057249906</v>
+        <v>2080.286194360008</v>
       </c>
       <c r="AB8" t="n">
-        <v>2551.784934033776</v>
+        <v>2846.339346873051</v>
       </c>
       <c r="AC8" t="n">
-        <v>2308.246161382241</v>
+        <v>2574.68871446985</v>
       </c>
       <c r="AD8" t="n">
-        <v>1865007.057249906</v>
+        <v>2080286.194360008</v>
       </c>
       <c r="AE8" t="n">
-        <v>2551784.934033776</v>
+        <v>2846339.346873051</v>
       </c>
       <c r="AF8" t="n">
         <v>3.747634567354476e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.87916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2308246.161382241</v>
+        <v>2574688.71446985</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1843.229333069862</v>
+        <v>2058.508470179964</v>
       </c>
       <c r="AB9" t="n">
-        <v>2521.987691045256</v>
+        <v>2816.542103884531</v>
       </c>
       <c r="AC9" t="n">
-        <v>2281.292725443852</v>
+        <v>2547.735278531461</v>
       </c>
       <c r="AD9" t="n">
-        <v>1843229.333069862</v>
+        <v>2058508.470179964</v>
       </c>
       <c r="AE9" t="n">
-        <v>2521987.691045256</v>
+        <v>2816542.103884531</v>
       </c>
       <c r="AF9" t="n">
         <v>3.76496205655925e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.6875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2281292.725443852</v>
+        <v>2547735.278531461</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1849.618716370438</v>
+        <v>2064.897853480541</v>
       </c>
       <c r="AB10" t="n">
-        <v>2530.729927156802</v>
+        <v>2825.284339996077</v>
       </c>
       <c r="AC10" t="n">
-        <v>2289.200614810717</v>
+        <v>2555.643167898326</v>
       </c>
       <c r="AD10" t="n">
-        <v>1849618.716370438</v>
+        <v>2064897.853480541</v>
       </c>
       <c r="AE10" t="n">
-        <v>2530729.927156802</v>
+        <v>2825284.339996077</v>
       </c>
       <c r="AF10" t="n">
         <v>3.76458537201132e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>42</v>
+        <v>41.69166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2289200.614810717</v>
+        <v>2555643.167898326</v>
       </c>
     </row>
   </sheetData>
@@ -4247,28 +4247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6085.187620180455</v>
+        <v>6520.675670260198</v>
       </c>
       <c r="AB2" t="n">
-        <v>8326.022161462251</v>
+        <v>8921.876123958218</v>
       </c>
       <c r="AC2" t="n">
-        <v>7531.398292017479</v>
+        <v>8070.384788619094</v>
       </c>
       <c r="AD2" t="n">
-        <v>6085187.620180455</v>
+        <v>6520675.670260197</v>
       </c>
       <c r="AE2" t="n">
-        <v>8326022.161462252</v>
+        <v>8921876.123958219</v>
       </c>
       <c r="AF2" t="n">
         <v>1.99898687678848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7531398.292017478</v>
+        <v>8070384.788619095</v>
       </c>
     </row>
     <row r="3">
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2709.985739602611</v>
+        <v>2971.259081429046</v>
       </c>
       <c r="AB3" t="n">
-        <v>3707.922045057488</v>
+        <v>4065.407757910772</v>
       </c>
       <c r="AC3" t="n">
-        <v>3354.043169178336</v>
+        <v>3677.410947331239</v>
       </c>
       <c r="AD3" t="n">
-        <v>2709985.739602611</v>
+        <v>2971259.081429046</v>
       </c>
       <c r="AE3" t="n">
-        <v>3707922.045057488</v>
+        <v>4065407.757910772</v>
       </c>
       <c r="AF3" t="n">
         <v>3.234237117970969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>3354043.169178336</v>
+        <v>3677410.947331239</v>
       </c>
     </row>
     <row r="4">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2148.698493307105</v>
+        <v>2380.997507490922</v>
       </c>
       <c r="AB4" t="n">
-        <v>2939.944072430089</v>
+        <v>3257.785831945791</v>
       </c>
       <c r="AC4" t="n">
-        <v>2659.359936394781</v>
+        <v>2946.867324475893</v>
       </c>
       <c r="AD4" t="n">
-        <v>2148698.493307105</v>
+        <v>2380997.507490922</v>
       </c>
       <c r="AE4" t="n">
-        <v>2939944.072430089</v>
+        <v>3257785.83194579</v>
       </c>
       <c r="AF4" t="n">
         <v>3.685554773658266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.59583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2659359.936394781</v>
+        <v>2946867.324475893</v>
       </c>
     </row>
     <row r="5">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1894.13326749493</v>
+        <v>2116.717567109855</v>
       </c>
       <c r="AB5" t="n">
-        <v>2591.636699848726</v>
+        <v>2896.186358308124</v>
       </c>
       <c r="AC5" t="n">
-        <v>2344.294530600116</v>
+        <v>2619.778397094279</v>
       </c>
       <c r="AD5" t="n">
-        <v>1894133.26749493</v>
+        <v>2116717.567109855</v>
       </c>
       <c r="AE5" t="n">
-        <v>2591636.699848725</v>
+        <v>2896186.358308123</v>
       </c>
       <c r="AF5" t="n">
         <v>3.919662927475968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.81666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2344294.530600116</v>
+        <v>2619778.397094279</v>
       </c>
     </row>
     <row r="6">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1757.034605711281</v>
+        <v>1969.871036368394</v>
       </c>
       <c r="AB6" t="n">
-        <v>2404.052262430252</v>
+        <v>2695.264456535943</v>
       </c>
       <c r="AC6" t="n">
-        <v>2174.61288861245</v>
+        <v>2438.032199631576</v>
       </c>
       <c r="AD6" t="n">
-        <v>1757034.605711281</v>
+        <v>1969871.036368394</v>
       </c>
       <c r="AE6" t="n">
-        <v>2404052.262430252</v>
+        <v>2695264.456535943</v>
       </c>
       <c r="AF6" t="n">
         <v>4.044960249237556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.45833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2174612.88861245</v>
+        <v>2438032.199631575</v>
       </c>
     </row>
     <row r="7">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1731.355955013497</v>
+        <v>1934.580167358063</v>
       </c>
       <c r="AB7" t="n">
-        <v>2368.917599683428</v>
+        <v>2646.97793263275</v>
       </c>
       <c r="AC7" t="n">
-        <v>2142.831428766374</v>
+        <v>2394.354073799141</v>
       </c>
       <c r="AD7" t="n">
-        <v>1731355.955013497</v>
+        <v>1934580.167358063</v>
       </c>
       <c r="AE7" t="n">
-        <v>2368917.599683428</v>
+        <v>2646977.93263275</v>
       </c>
       <c r="AF7" t="n">
         <v>4.071750795008947e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.17916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2142831.428766374</v>
+        <v>2394354.073799141</v>
       </c>
     </row>
     <row r="8">
@@ -4883,28 +4883,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1736.802871331959</v>
+        <v>1940.027083676525</v>
       </c>
       <c r="AB8" t="n">
-        <v>2376.370310891336</v>
+        <v>2654.430643840658</v>
       </c>
       <c r="AC8" t="n">
-        <v>2149.572863676546</v>
+        <v>2401.095508709313</v>
       </c>
       <c r="AD8" t="n">
-        <v>1736802.871331959</v>
+        <v>1940027.083676525</v>
       </c>
       <c r="AE8" t="n">
-        <v>2376370.310891336</v>
+        <v>2654430.643840658</v>
       </c>
       <c r="AF8" t="n">
         <v>4.071750795008947e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.17916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2149572.863676546</v>
+        <v>2401095.508709312</v>
       </c>
     </row>
   </sheetData>
@@ -5180,28 +5180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2043.494094569825</v>
+        <v>2305.379252444609</v>
       </c>
       <c r="AB2" t="n">
-        <v>2795.998772787236</v>
+        <v>3154.321599349452</v>
       </c>
       <c r="AC2" t="n">
-        <v>2529.152574121345</v>
+        <v>2853.277573025591</v>
       </c>
       <c r="AD2" t="n">
-        <v>2043494.094569825</v>
+        <v>2305379.252444609</v>
       </c>
       <c r="AE2" t="n">
-        <v>2795998.772787236</v>
+        <v>3154321.599349452</v>
       </c>
       <c r="AF2" t="n">
         <v>4.442382692195873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.95416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2529152.574121345</v>
+        <v>2853277.573025591</v>
       </c>
     </row>
     <row r="3">
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1486.489214422554</v>
+        <v>1710.95244533843</v>
       </c>
       <c r="AB3" t="n">
-        <v>2033.880122448727</v>
+        <v>2341.000617606683</v>
       </c>
       <c r="AC3" t="n">
-        <v>1839.7694581309</v>
+        <v>2117.578804277303</v>
       </c>
       <c r="AD3" t="n">
-        <v>1486489.214422554</v>
+        <v>1710952.44533843</v>
       </c>
       <c r="AE3" t="n">
-        <v>2033880.122448727</v>
+        <v>2341000.617606683</v>
       </c>
       <c r="AF3" t="n">
         <v>5.259868551508272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.57083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1839769.4581309</v>
+        <v>2117578.804277303</v>
       </c>
     </row>
     <row r="4">
@@ -5392,28 +5392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1491.331985458549</v>
+        <v>1706.508065472259</v>
       </c>
       <c r="AB4" t="n">
-        <v>2040.506215428154</v>
+        <v>2334.919621001587</v>
       </c>
       <c r="AC4" t="n">
-        <v>1845.763166096151</v>
+        <v>2112.078169453465</v>
       </c>
       <c r="AD4" t="n">
-        <v>1491331.985458549</v>
+        <v>1706508.065472259</v>
       </c>
       <c r="AE4" t="n">
-        <v>2040506.215428154</v>
+        <v>2334919.621001587</v>
       </c>
       <c r="AF4" t="n">
         <v>5.266196731981485e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.51666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1845763.166096151</v>
+        <v>2112078.169453465</v>
       </c>
     </row>
   </sheetData>
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3039.955225344703</v>
+        <v>3352.777543328164</v>
       </c>
       <c r="AB2" t="n">
-        <v>4159.400852676157</v>
+        <v>4587.418148887814</v>
       </c>
       <c r="AC2" t="n">
-        <v>3762.433473052348</v>
+        <v>4149.601399239597</v>
       </c>
       <c r="AD2" t="n">
-        <v>3039955.225344703</v>
+        <v>3352777.543328164</v>
       </c>
       <c r="AE2" t="n">
-        <v>4159400.852676157</v>
+        <v>4587418.148887814</v>
       </c>
       <c r="AF2" t="n">
         <v>3.30107283909305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.88333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3762433.473052348</v>
+        <v>4149601.399239598</v>
       </c>
     </row>
     <row r="3">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1769.60403078235</v>
+        <v>1997.050063220578</v>
       </c>
       <c r="AB3" t="n">
-        <v>2421.250304336387</v>
+        <v>2732.452000129141</v>
       </c>
       <c r="AC3" t="n">
-        <v>2190.169573536667</v>
+        <v>2471.670616257284</v>
       </c>
       <c r="AD3" t="n">
-        <v>1769604.030782351</v>
+        <v>1997050.063220578</v>
       </c>
       <c r="AE3" t="n">
-        <v>2421250.304336387</v>
+        <v>2732452.000129141</v>
       </c>
       <c r="AF3" t="n">
         <v>4.473835510874675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>2190169.573536667</v>
+        <v>2471670.616257284</v>
       </c>
     </row>
     <row r="4">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1557.189210188761</v>
+        <v>1775.219992306214</v>
       </c>
       <c r="AB4" t="n">
-        <v>2130.614975719731</v>
+        <v>2428.934310652073</v>
       </c>
       <c r="AC4" t="n">
-        <v>1927.272072773939</v>
+        <v>2197.120229074154</v>
       </c>
       <c r="AD4" t="n">
-        <v>1557189.210188761</v>
+        <v>1775219.992306214</v>
       </c>
       <c r="AE4" t="n">
-        <v>2130614.975719731</v>
+        <v>2428934.310652073</v>
       </c>
       <c r="AF4" t="n">
         <v>4.745852681134984e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.7375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1927272.072773939</v>
+        <v>2197120.229074155</v>
       </c>
     </row>
     <row r="5">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1558.997987759527</v>
+        <v>1777.02876987698</v>
       </c>
       <c r="AB5" t="n">
-        <v>2133.089824989688</v>
+        <v>2431.40915992203</v>
       </c>
       <c r="AC5" t="n">
-        <v>1929.510725903044</v>
+        <v>2199.358882203259</v>
       </c>
       <c r="AD5" t="n">
-        <v>1558997.987759527</v>
+        <v>1777028.76987698</v>
       </c>
       <c r="AE5" t="n">
-        <v>2133089.824989688</v>
+        <v>2431409.15992203</v>
       </c>
       <c r="AF5" t="n">
         <v>4.754820280154554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.65416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1929510.725903044</v>
+        <v>2199358.88220326</v>
       </c>
     </row>
   </sheetData>
@@ -6304,28 +6304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1529.528451625783</v>
+        <v>1760.708046178728</v>
       </c>
       <c r="AB2" t="n">
-        <v>2092.768305547322</v>
+        <v>2409.078425738568</v>
       </c>
       <c r="AC2" t="n">
-        <v>1893.03743568465</v>
+        <v>2179.159361948884</v>
       </c>
       <c r="AD2" t="n">
-        <v>1529528.451625783</v>
+        <v>1760708.046178728</v>
       </c>
       <c r="AE2" t="n">
-        <v>2092768.305547322</v>
+        <v>2409078.425738568</v>
       </c>
       <c r="AF2" t="n">
         <v>5.567833697787316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1893037.43568465</v>
+        <v>2179159.361948885</v>
       </c>
     </row>
     <row r="3">
@@ -6410,28 +6410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1449.317294190907</v>
+        <v>1680.530043132774</v>
       </c>
       <c r="AB3" t="n">
-        <v>1983.019861278404</v>
+        <v>2299.375344767243</v>
       </c>
       <c r="AC3" t="n">
-        <v>1793.763228903848</v>
+        <v>2079.926189056222</v>
       </c>
       <c r="AD3" t="n">
-        <v>1449317.294190906</v>
+        <v>1680530.043132774</v>
       </c>
       <c r="AE3" t="n">
-        <v>1983019.861278404</v>
+        <v>2299375.344767244</v>
       </c>
       <c r="AF3" t="n">
         <v>5.729267929261623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.92083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1793763.228903848</v>
+        <v>2079926.189056222</v>
       </c>
     </row>
   </sheetData>
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6838.40929120449</v>
+        <v>7294.626443793007</v>
       </c>
       <c r="AB2" t="n">
-        <v>9356.613281552283</v>
+        <v>9980.829716604214</v>
       </c>
       <c r="AC2" t="n">
-        <v>8463.631242049798</v>
+        <v>9028.27333663362</v>
       </c>
       <c r="AD2" t="n">
-        <v>6838409.29120449</v>
+        <v>7294626.443793007</v>
       </c>
       <c r="AE2" t="n">
-        <v>9356613.281552283</v>
+        <v>9980829.716604214</v>
       </c>
       <c r="AF2" t="n">
         <v>1.843709789866383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8463631.242049798</v>
+        <v>9028273.336633619</v>
       </c>
     </row>
     <row r="3">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2878.035007941923</v>
+        <v>3149.749360863806</v>
       </c>
       <c r="AB3" t="n">
-        <v>3937.854467809825</v>
+        <v>4309.626032668805</v>
       </c>
       <c r="AC3" t="n">
-        <v>3562.031164215365</v>
+        <v>3898.321372708857</v>
       </c>
       <c r="AD3" t="n">
-        <v>2878035.007941923</v>
+        <v>3149749.360863806</v>
       </c>
       <c r="AE3" t="n">
-        <v>3937854.467809825</v>
+        <v>4309626.032668806</v>
       </c>
       <c r="AF3" t="n">
         <v>3.086524635129718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.29999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>3562031.164215364</v>
+        <v>3898321.372708858</v>
       </c>
     </row>
     <row r="4">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2271.52393646216</v>
+        <v>2504.436740007518</v>
       </c>
       <c r="AB4" t="n">
-        <v>3107.999262431134</v>
+        <v>3426.680835629602</v>
       </c>
       <c r="AC4" t="n">
-        <v>2811.376174928951</v>
+        <v>3099.643226053742</v>
       </c>
       <c r="AD4" t="n">
-        <v>2271523.93646216</v>
+        <v>2504436.740007517</v>
       </c>
       <c r="AE4" t="n">
-        <v>3107999.262431134</v>
+        <v>3426680.835629602</v>
       </c>
       <c r="AF4" t="n">
         <v>3.540212384468566e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.3375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2811376.174928951</v>
+        <v>3099643.226053742</v>
       </c>
     </row>
     <row r="5">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1995.718089128988</v>
+        <v>2218.887798556741</v>
       </c>
       <c r="AB5" t="n">
-        <v>2730.629534414479</v>
+        <v>3035.980176406419</v>
       </c>
       <c r="AC5" t="n">
-        <v>2470.022084112582</v>
+        <v>2746.230489395015</v>
       </c>
       <c r="AD5" t="n">
-        <v>1995718.089128988</v>
+        <v>2218887.79855674</v>
       </c>
       <c r="AE5" t="n">
-        <v>2730629.534414479</v>
+        <v>3035980.176406419</v>
       </c>
       <c r="AF5" t="n">
         <v>3.783948888102735e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.2875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2470022.084112582</v>
+        <v>2746230.489395015</v>
       </c>
     </row>
     <row r="6">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1813.231786436928</v>
+        <v>2026.794052392336</v>
       </c>
       <c r="AB6" t="n">
-        <v>2480.943724343719</v>
+        <v>2773.149038326131</v>
       </c>
       <c r="AC6" t="n">
-        <v>2244.16593731874</v>
+        <v>2508.483586247405</v>
       </c>
       <c r="AD6" t="n">
-        <v>1813231.786436928</v>
+        <v>2026794.052392336</v>
       </c>
       <c r="AE6" t="n">
-        <v>2480943.724343718</v>
+        <v>2773149.038326131</v>
       </c>
       <c r="AF6" t="n">
         <v>3.934775932430809e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.59166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2244165.93731874</v>
+        <v>2508483.586247405</v>
       </c>
     </row>
     <row r="7">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1762.89379852109</v>
+        <v>1966.713981388748</v>
       </c>
       <c r="AB7" t="n">
-        <v>2412.069068521976</v>
+        <v>2690.944834633356</v>
       </c>
       <c r="AC7" t="n">
-        <v>2181.864581982437</v>
+        <v>2434.124836380744</v>
       </c>
       <c r="AD7" t="n">
-        <v>1762893.79852109</v>
+        <v>1966713.981388748</v>
       </c>
       <c r="AE7" t="n">
-        <v>2412069.068521976</v>
+        <v>2690944.834633356</v>
       </c>
       <c r="AF7" t="n">
         <v>3.982638381164252e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.07916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2181864.581982438</v>
+        <v>2434124.836380743</v>
       </c>
     </row>
     <row r="8">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1765.117060371546</v>
+        <v>1968.937243239204</v>
       </c>
       <c r="AB8" t="n">
-        <v>2415.11103346916</v>
+        <v>2693.98679958054</v>
       </c>
       <c r="AC8" t="n">
-        <v>2184.616226064487</v>
+        <v>2436.876480462793</v>
       </c>
       <c r="AD8" t="n">
-        <v>1765117.060371546</v>
+        <v>1968937.243239203</v>
       </c>
       <c r="AE8" t="n">
-        <v>2415111.03346916</v>
+        <v>2693986.79958054</v>
       </c>
       <c r="AF8" t="n">
         <v>3.984649408421959e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.05833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2184616.226064487</v>
+        <v>2436876.480462793</v>
       </c>
     </row>
   </sheetData>
@@ -7640,28 +7640,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1455.530152691844</v>
+        <v>1694.321979487918</v>
       </c>
       <c r="AB2" t="n">
-        <v>1991.520568371359</v>
+        <v>2318.246080545642</v>
       </c>
       <c r="AC2" t="n">
-        <v>1801.452640442669</v>
+        <v>2096.995928297174</v>
       </c>
       <c r="AD2" t="n">
-        <v>1455530.152691844</v>
+        <v>1694321.979487919</v>
       </c>
       <c r="AE2" t="n">
-        <v>1991520.568371359</v>
+        <v>2318246.080545641</v>
       </c>
       <c r="AF2" t="n">
         <v>5.980484039301427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.22916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1801452.640442668</v>
+        <v>2096995.928297174</v>
       </c>
     </row>
     <row r="3">
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1459.601113283222</v>
+        <v>1689.27175255373</v>
       </c>
       <c r="AB3" t="n">
-        <v>1997.090636250589</v>
+        <v>2311.336137253997</v>
       </c>
       <c r="AC3" t="n">
-        <v>1806.491108861144</v>
+        <v>2090.745460295117</v>
       </c>
       <c r="AD3" t="n">
-        <v>1459601.113283222</v>
+        <v>1689271.75255373</v>
       </c>
       <c r="AE3" t="n">
-        <v>1997090.636250589</v>
+        <v>2311336.137253997</v>
       </c>
       <c r="AF3" t="n">
         <v>5.999229378062347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.07500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1806491.108861144</v>
+        <v>2090745.460295118</v>
       </c>
     </row>
   </sheetData>
@@ -8043,28 +8043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4321.251810001641</v>
+        <v>4675.9227447681</v>
       </c>
       <c r="AB2" t="n">
-        <v>5912.527366619734</v>
+        <v>6397.803786544561</v>
       </c>
       <c r="AC2" t="n">
-        <v>5348.2440530336</v>
+        <v>5787.206372530518</v>
       </c>
       <c r="AD2" t="n">
-        <v>4321251.810001642</v>
+        <v>4675922.7447681</v>
       </c>
       <c r="AE2" t="n">
-        <v>5912527.366619733</v>
+        <v>6397803.786544561</v>
       </c>
       <c r="AF2" t="n">
         <v>2.551878748440062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.175</v>
       </c>
       <c r="AH2" t="n">
-        <v>5348244.0530336</v>
+        <v>5787206.372530518</v>
       </c>
     </row>
     <row r="3">
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2226.107100918164</v>
+        <v>2475.338308454022</v>
       </c>
       <c r="AB3" t="n">
-        <v>3045.857944390461</v>
+        <v>3386.867077845908</v>
       </c>
       <c r="AC3" t="n">
-        <v>2755.165537066194</v>
+        <v>3063.629237433965</v>
       </c>
       <c r="AD3" t="n">
-        <v>2226107.100918164</v>
+        <v>2475338.308454022</v>
       </c>
       <c r="AE3" t="n">
-        <v>3045857.944390461</v>
+        <v>3386867.077845908</v>
       </c>
       <c r="AF3" t="n">
         <v>3.757903636401461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2755165.537066194</v>
+        <v>3063629.237433965</v>
       </c>
     </row>
     <row r="4">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1796.723776109183</v>
+        <v>2017.122332486557</v>
       </c>
       <c r="AB4" t="n">
-        <v>2458.356736331282</v>
+        <v>2759.915764464877</v>
       </c>
       <c r="AC4" t="n">
-        <v>2223.734619741174</v>
+        <v>2496.513277470452</v>
       </c>
       <c r="AD4" t="n">
-        <v>1796723.776109183</v>
+        <v>2017122.332486557</v>
       </c>
       <c r="AE4" t="n">
-        <v>2458356.736331282</v>
+        <v>2759915.764464877</v>
       </c>
       <c r="AF4" t="n">
         <v>4.199350873355002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.47083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2223734.619741174</v>
+        <v>2496513.277470452</v>
       </c>
     </row>
     <row r="5">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1643.762519672952</v>
+        <v>1854.674117493219</v>
       </c>
       <c r="AB5" t="n">
-        <v>2249.06839710086</v>
+        <v>2537.646950001546</v>
       </c>
       <c r="AC5" t="n">
-        <v>2034.420465868874</v>
+        <v>2295.457486703262</v>
       </c>
       <c r="AD5" t="n">
-        <v>1643762.519672952</v>
+        <v>1854674.117493219</v>
       </c>
       <c r="AE5" t="n">
-        <v>2249068.39710086</v>
+        <v>2537646.950001547</v>
       </c>
       <c r="AF5" t="n">
         <v>4.359347486139178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.83333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2034420.465868874</v>
+        <v>2295457.486703262</v>
       </c>
     </row>
     <row r="6">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1640.050104631872</v>
+        <v>1850.961702452139</v>
       </c>
       <c r="AB6" t="n">
-        <v>2243.988907061461</v>
+        <v>2532.567459962148</v>
       </c>
       <c r="AC6" t="n">
-        <v>2029.825755229726</v>
+        <v>2290.862776064115</v>
       </c>
       <c r="AD6" t="n">
-        <v>1640050.104631872</v>
+        <v>1850961.702452139</v>
       </c>
       <c r="AE6" t="n">
-        <v>2243988.907061461</v>
+        <v>2532567.459962148</v>
       </c>
       <c r="AF6" t="n">
         <v>4.370103560948198e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.72916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2029825.755229726</v>
+        <v>2290862.776064115</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5424.550583437395</v>
+        <v>5829.726565577408</v>
       </c>
       <c r="AB2" t="n">
-        <v>7422.109422541255</v>
+        <v>7976.489076408021</v>
       </c>
       <c r="AC2" t="n">
-        <v>6713.753716249636</v>
+        <v>7215.224154028069</v>
       </c>
       <c r="AD2" t="n">
-        <v>5424550.583437395</v>
+        <v>5829726.565577408</v>
       </c>
       <c r="AE2" t="n">
-        <v>7422109.422541255</v>
+        <v>7976489.076408021</v>
       </c>
       <c r="AF2" t="n">
         <v>2.168043364722132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6713753.716249636</v>
+        <v>7215224.154028069</v>
       </c>
     </row>
     <row r="3">
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2537.770669205258</v>
+        <v>2798.281780070306</v>
       </c>
       <c r="AB3" t="n">
-        <v>3472.289788147121</v>
+        <v>3828.73258297178</v>
       </c>
       <c r="AC3" t="n">
-        <v>3140.899324155554</v>
+        <v>3463.323718912739</v>
       </c>
       <c r="AD3" t="n">
-        <v>2537770.669205258</v>
+        <v>2798281.780070306</v>
       </c>
       <c r="AE3" t="n">
-        <v>3472289.788147121</v>
+        <v>3828732.58297178</v>
       </c>
       <c r="AF3" t="n">
         <v>3.393992568812813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.93333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3140899.324155554</v>
+        <v>3463323.718912738</v>
       </c>
     </row>
     <row r="4">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2031.884386082047</v>
+        <v>2263.442225646806</v>
       </c>
       <c r="AB4" t="n">
-        <v>2780.113857450067</v>
+        <v>3096.941509153649</v>
       </c>
       <c r="AC4" t="n">
-        <v>2514.783692809337</v>
+        <v>2801.373758104615</v>
       </c>
       <c r="AD4" t="n">
-        <v>2031884.386082047</v>
+        <v>2263442.225646806</v>
       </c>
       <c r="AE4" t="n">
-        <v>2780113.857450068</v>
+        <v>3096941.509153649</v>
       </c>
       <c r="AF4" t="n">
         <v>3.838600095900221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.91666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2514783.692809337</v>
+        <v>2801373.758104615</v>
       </c>
     </row>
     <row r="5">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1789.842971028912</v>
+        <v>2002.065475337886</v>
       </c>
       <c r="AB5" t="n">
-        <v>2448.94211526076</v>
+        <v>2739.314308252409</v>
       </c>
       <c r="AC5" t="n">
-        <v>2215.218516892119</v>
+        <v>2477.877995324577</v>
       </c>
       <c r="AD5" t="n">
-        <v>1789842.971028912</v>
+        <v>2002065.475337886</v>
       </c>
       <c r="AE5" t="n">
-        <v>2448942.11526076</v>
+        <v>2739314.308252409</v>
       </c>
       <c r="AF5" t="n">
         <v>4.073806361419344e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.26666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2215218.516892119</v>
+        <v>2477877.995324577</v>
       </c>
     </row>
     <row r="6">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1703.90248528302</v>
+        <v>1916.090824173212</v>
       </c>
       <c r="AB6" t="n">
-        <v>2331.354551236584</v>
+        <v>2621.679997594985</v>
       </c>
       <c r="AC6" t="n">
-        <v>2108.853344943228</v>
+        <v>2371.470538175506</v>
       </c>
       <c r="AD6" t="n">
-        <v>1703902.48528302</v>
+        <v>1916090.824173213</v>
       </c>
       <c r="AE6" t="n">
-        <v>2331354.551236584</v>
+        <v>2621679.997594985</v>
       </c>
       <c r="AF6" t="n">
         <v>4.157143833195004e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2108853.344943228</v>
+        <v>2371470.538175506</v>
       </c>
     </row>
     <row r="7">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1701.20526302305</v>
+        <v>1913.393601913242</v>
       </c>
       <c r="AB7" t="n">
-        <v>2327.664092747445</v>
+        <v>2617.989539105847</v>
       </c>
       <c r="AC7" t="n">
-        <v>2105.515098632701</v>
+        <v>2368.132291864979</v>
       </c>
       <c r="AD7" t="n">
-        <v>1701205.26302305</v>
+        <v>1913393.601913243</v>
       </c>
       <c r="AE7" t="n">
-        <v>2327664.092747446</v>
+        <v>2617989.539105847</v>
       </c>
       <c r="AF7" t="n">
         <v>4.16475842452476e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.325</v>
       </c>
       <c r="AH7" t="n">
-        <v>2105515.098632701</v>
+        <v>2368132.29186498</v>
       </c>
     </row>
   </sheetData>
@@ -9591,28 +9591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8735.71197573501</v>
+        <v>9253.039733247544</v>
       </c>
       <c r="AB2" t="n">
-        <v>11952.58651761407</v>
+        <v>12660.41717833265</v>
       </c>
       <c r="AC2" t="n">
-        <v>10811.84843593307</v>
+        <v>11452.12473183922</v>
       </c>
       <c r="AD2" t="n">
-        <v>8735711.975735011</v>
+        <v>9253039.733247545</v>
       </c>
       <c r="AE2" t="n">
-        <v>11952586.51761407</v>
+        <v>12660417.17833265</v>
       </c>
       <c r="AF2" t="n">
         <v>1.562464693829938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>103</v>
+        <v>102.55</v>
       </c>
       <c r="AH2" t="n">
-        <v>10811848.43593307</v>
+        <v>11452124.73183922</v>
       </c>
     </row>
     <row r="3">
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3235.715323251918</v>
+        <v>3528.497876298711</v>
       </c>
       <c r="AB3" t="n">
-        <v>4427.248454958822</v>
+        <v>4827.846460692095</v>
       </c>
       <c r="AC3" t="n">
-        <v>4004.718076099617</v>
+        <v>4367.083570408524</v>
       </c>
       <c r="AD3" t="n">
-        <v>3235715.323251917</v>
+        <v>3528497.876298711</v>
       </c>
       <c r="AE3" t="n">
-        <v>4427248.454958822</v>
+        <v>4827846.460692096</v>
       </c>
       <c r="AF3" t="n">
         <v>2.818435574964217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.85</v>
       </c>
       <c r="AH3" t="n">
-        <v>4004718.076099616</v>
+        <v>4367083.570408524</v>
       </c>
     </row>
     <row r="4">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2507.154805685891</v>
+        <v>2751.191514686391</v>
       </c>
       <c r="AB4" t="n">
-        <v>3430.399813003348</v>
+        <v>3764.301604397616</v>
       </c>
       <c r="AC4" t="n">
-        <v>3103.007269446555</v>
+        <v>3405.041942504249</v>
       </c>
       <c r="AD4" t="n">
-        <v>2507154.805685891</v>
+        <v>2751191.514686391</v>
       </c>
       <c r="AE4" t="n">
-        <v>3430399.813003348</v>
+        <v>3764301.604397616</v>
       </c>
       <c r="AF4" t="n">
         <v>3.28182960796079e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.82500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>3103007.269446555</v>
+        <v>3405041.942504249</v>
       </c>
     </row>
     <row r="5">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2200.062021337781</v>
+        <v>2424.505740577033</v>
       </c>
       <c r="AB5" t="n">
-        <v>3010.221917480762</v>
+        <v>3317.315715901987</v>
       </c>
       <c r="AC5" t="n">
-        <v>2722.930562549281</v>
+        <v>3000.715759858025</v>
       </c>
       <c r="AD5" t="n">
-        <v>2200062.021337781</v>
+        <v>2424505.740577033</v>
       </c>
       <c r="AE5" t="n">
-        <v>3010221.917480762</v>
+        <v>3317315.715901987</v>
       </c>
       <c r="AF5" t="n">
         <v>3.529101278680123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.40416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2722930.56254928</v>
+        <v>3000715.759858025</v>
       </c>
     </row>
     <row r="6">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2009.733582285395</v>
+        <v>2224.414466547878</v>
       </c>
       <c r="AB6" t="n">
-        <v>2749.806150470994</v>
+        <v>3043.542007371279</v>
       </c>
       <c r="AC6" t="n">
-        <v>2487.368510847213</v>
+        <v>2753.070629825685</v>
       </c>
       <c r="AD6" t="n">
-        <v>2009733.582285395</v>
+        <v>2224414.466547878</v>
       </c>
       <c r="AE6" t="n">
-        <v>2749806.150470994</v>
+        <v>3043542.007371279</v>
       </c>
       <c r="AF6" t="n">
         <v>3.68484782089059e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.48333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2487368.510847213</v>
+        <v>2753070.629825685</v>
       </c>
     </row>
     <row r="7">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1872.97413529181</v>
+        <v>2087.62085413551</v>
       </c>
       <c r="AB7" t="n">
-        <v>2562.685841693386</v>
+        <v>2856.374951960245</v>
       </c>
       <c r="AC7" t="n">
-        <v>2318.106701714337</v>
+        <v>2583.766535492582</v>
       </c>
       <c r="AD7" t="n">
-        <v>1872974.13529181</v>
+        <v>2087620.854135511</v>
       </c>
       <c r="AE7" t="n">
-        <v>2562685.841693386</v>
+        <v>2856374.951960245</v>
       </c>
       <c r="AF7" t="n">
         <v>3.790217086484831e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.275</v>
       </c>
       <c r="AH7" t="n">
-        <v>2318106.701714337</v>
+        <v>2583766.535492582</v>
       </c>
     </row>
     <row r="8">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1818.106145547169</v>
+        <v>2032.820184198574</v>
       </c>
       <c r="AB8" t="n">
-        <v>2487.613037519899</v>
+        <v>2781.394257717599</v>
       </c>
       <c r="AC8" t="n">
-        <v>2250.198740605826</v>
+        <v>2515.941893472389</v>
       </c>
       <c r="AD8" t="n">
-        <v>1818106.145547169</v>
+        <v>2032820.184198574</v>
       </c>
       <c r="AE8" t="n">
-        <v>2487613.037519899</v>
+        <v>2781394.257717599</v>
       </c>
       <c r="AF8" t="n">
         <v>3.825596547925233e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.88333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2250198.740605826</v>
+        <v>2515941.893472389</v>
       </c>
     </row>
     <row r="9">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1818.339663175972</v>
+        <v>2033.053701827376</v>
       </c>
       <c r="AB9" t="n">
-        <v>2487.932546641696</v>
+        <v>2781.713766839397</v>
       </c>
       <c r="AC9" t="n">
-        <v>2250.487756225472</v>
+        <v>2516.230909092037</v>
       </c>
       <c r="AD9" t="n">
-        <v>1818339.663175971</v>
+        <v>2033053.701827376</v>
       </c>
       <c r="AE9" t="n">
-        <v>2487932.546641696</v>
+        <v>2781713.766839397</v>
       </c>
       <c r="AF9" t="n">
         <v>3.833672294558368e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.79583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2250487.756225472</v>
+        <v>2516230.909092037</v>
       </c>
     </row>
   </sheetData>
@@ -10630,28 +10630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3432.608612633824</v>
+        <v>3756.144189621564</v>
       </c>
       <c r="AB2" t="n">
-        <v>4696.646539810038</v>
+        <v>5139.322189626983</v>
       </c>
       <c r="AC2" t="n">
-        <v>4248.40518583521</v>
+        <v>4648.832492932785</v>
       </c>
       <c r="AD2" t="n">
-        <v>3432608.612633824</v>
+        <v>3756144.189621564</v>
       </c>
       <c r="AE2" t="n">
-        <v>4696646.539810038</v>
+        <v>5139322.189626983</v>
       </c>
       <c r="AF2" t="n">
         <v>3.021242529084019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.11666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4248405.185835211</v>
+        <v>4648832.492932784</v>
       </c>
     </row>
     <row r="3">
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1919.106164199702</v>
+        <v>2147.478486714163</v>
       </c>
       <c r="AB3" t="n">
-        <v>2625.805718846642</v>
+        <v>2938.274805586733</v>
       </c>
       <c r="AC3" t="n">
-        <v>2375.202506381391</v>
+        <v>2657.849982036125</v>
       </c>
       <c r="AD3" t="n">
-        <v>1919106.164199702</v>
+        <v>2147478.486714163</v>
       </c>
       <c r="AE3" t="n">
-        <v>2625805.718846642</v>
+        <v>2938274.805586733</v>
       </c>
       <c r="AF3" t="n">
         <v>4.209700198014404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.45</v>
       </c>
       <c r="AH3" t="n">
-        <v>2375202.506381391</v>
+        <v>2657849.982036125</v>
       </c>
     </row>
     <row r="4">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1603.109702832275</v>
+        <v>1821.995437746453</v>
       </c>
       <c r="AB4" t="n">
-        <v>2193.445419623743</v>
+        <v>2492.93453869042</v>
       </c>
       <c r="AC4" t="n">
-        <v>1984.106067294834</v>
+        <v>2255.012365173406</v>
       </c>
       <c r="AD4" t="n">
-        <v>1603109.702832275</v>
+        <v>1821995.437746453</v>
       </c>
       <c r="AE4" t="n">
-        <v>2193445.419623743</v>
+        <v>2492934.53869042</v>
       </c>
       <c r="AF4" t="n">
         <v>4.583160675665379e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.58333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1984106.067294833</v>
+        <v>2255012.365173406</v>
       </c>
     </row>
     <row r="5">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1587.287517766817</v>
+        <v>1796.620356302866</v>
       </c>
       <c r="AB5" t="n">
-        <v>2171.796807991644</v>
+        <v>2458.215232789719</v>
       </c>
       <c r="AC5" t="n">
-        <v>1964.523568772885</v>
+        <v>2223.606621099016</v>
       </c>
       <c r="AD5" t="n">
-        <v>1587287.517766817</v>
+        <v>1796620.356302866</v>
       </c>
       <c r="AE5" t="n">
-        <v>2171796.807991643</v>
+        <v>2458215.232789719</v>
       </c>
       <c r="AF5" t="n">
         <v>4.612404692528935e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.30833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1964523.568772885</v>
+        <v>2223606.621099016</v>
       </c>
     </row>
   </sheetData>
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2356.698040721712</v>
+        <v>2638.623545524774</v>
       </c>
       <c r="AB2" t="n">
-        <v>3224.53822949534</v>
+        <v>3610.281142842377</v>
       </c>
       <c r="AC2" t="n">
-        <v>2916.792826540012</v>
+        <v>3265.720977630772</v>
       </c>
       <c r="AD2" t="n">
-        <v>2356698.040721712</v>
+        <v>2638623.545524774</v>
       </c>
       <c r="AE2" t="n">
-        <v>3224538.22949534</v>
+        <v>3610281.142842377</v>
       </c>
       <c r="AF2" t="n">
         <v>3.995202498061942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>2916792.826540012</v>
+        <v>3265720.977630772</v>
       </c>
     </row>
     <row r="3">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1532.08271263411</v>
+        <v>1748.202694886501</v>
       </c>
       <c r="AB3" t="n">
-        <v>2096.263158144958</v>
+        <v>2391.968052403382</v>
       </c>
       <c r="AC3" t="n">
-        <v>1896.198744455423</v>
+        <v>2163.681978630249</v>
       </c>
       <c r="AD3" t="n">
-        <v>1532082.71263411</v>
+        <v>1748202.694886501</v>
       </c>
       <c r="AE3" t="n">
-        <v>2096263.158144958</v>
+        <v>2391968.052403382</v>
       </c>
       <c r="AF3" t="n">
         <v>5.037476638639705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.09166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1896198.744455423</v>
+        <v>2163681.978630249</v>
       </c>
     </row>
     <row r="4">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1505.352650830656</v>
+        <v>1721.539952890751</v>
       </c>
       <c r="AB4" t="n">
-        <v>2059.689908338371</v>
+        <v>2355.486912527638</v>
       </c>
       <c r="AC4" t="n">
-        <v>1863.115994279499</v>
+        <v>2130.682547542644</v>
       </c>
       <c r="AD4" t="n">
-        <v>1505352.650830656</v>
+        <v>1721539.952890751</v>
       </c>
       <c r="AE4" t="n">
-        <v>2059689.908338371</v>
+        <v>2355486.912527638</v>
       </c>
       <c r="AF4" t="n">
         <v>5.077815700565832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1863115.994279499</v>
+        <v>2130682.547542644</v>
       </c>
     </row>
   </sheetData>
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1760.088666609085</v>
+        <v>2001.94233424156</v>
       </c>
       <c r="AB2" t="n">
-        <v>2408.230963286285</v>
+        <v>2739.145821171813</v>
       </c>
       <c r="AC2" t="n">
-        <v>2178.392780123626</v>
+        <v>2477.725588414481</v>
       </c>
       <c r="AD2" t="n">
-        <v>1760088.666609085</v>
+        <v>2001942.33424156</v>
       </c>
       <c r="AE2" t="n">
-        <v>2408230.963286285</v>
+        <v>2739145.821171813</v>
       </c>
       <c r="AF2" t="n">
         <v>4.982049635047225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>2178392.780123626</v>
+        <v>2477725.58841448</v>
       </c>
     </row>
     <row r="3">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1464.60531670086</v>
+        <v>1687.914369305735</v>
       </c>
       <c r="AB3" t="n">
-        <v>2003.937608136476</v>
+        <v>2309.478905610567</v>
       </c>
       <c r="AC3" t="n">
-        <v>1812.684615360027</v>
+        <v>2089.065480233096</v>
       </c>
       <c r="AD3" t="n">
-        <v>1464605.31670086</v>
+        <v>1687914.369305735</v>
       </c>
       <c r="AE3" t="n">
-        <v>2003937.608136476</v>
+        <v>2309478.905610567</v>
       </c>
       <c r="AF3" t="n">
         <v>5.483438016849103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.52083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1812684.615360027</v>
+        <v>2089065.480233096</v>
       </c>
     </row>
   </sheetData>
@@ -20930,28 +20930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1467.860240816504</v>
+        <v>1723.087942640232</v>
       </c>
       <c r="AB2" t="n">
-        <v>2008.391138908616</v>
+        <v>2357.604940395365</v>
       </c>
       <c r="AC2" t="n">
-        <v>1816.713107405844</v>
+        <v>2132.598433803347</v>
       </c>
       <c r="AD2" t="n">
-        <v>1467860.240816504</v>
+        <v>1723087.942640232</v>
       </c>
       <c r="AE2" t="n">
-        <v>2008391.138908616</v>
+        <v>2357604.940395365</v>
       </c>
       <c r="AF2" t="n">
         <v>6.262105826024715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1816713.107405844</v>
+        <v>2132598.433803347</v>
       </c>
     </row>
   </sheetData>
@@ -21227,28 +21227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4841.81220266782</v>
+        <v>5216.907689937806</v>
       </c>
       <c r="AB2" t="n">
-        <v>6624.78106136934</v>
+        <v>7138.003255097159</v>
       </c>
       <c r="AC2" t="n">
-        <v>5992.521254810616</v>
+        <v>6456.762242680907</v>
       </c>
       <c r="AD2" t="n">
-        <v>4841812.20266782</v>
+        <v>5216907.689937806</v>
       </c>
       <c r="AE2" t="n">
-        <v>6624781.06136934</v>
+        <v>7138003.255097159</v>
       </c>
       <c r="AF2" t="n">
         <v>2.351453213358133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.075</v>
       </c>
       <c r="AH2" t="n">
-        <v>5992521.254810616</v>
+        <v>6456762.242680906</v>
       </c>
     </row>
     <row r="3">
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2378.986937142395</v>
+        <v>2629.084086721261</v>
       </c>
       <c r="AB3" t="n">
-        <v>3255.034880894832</v>
+        <v>3597.22883445619</v>
       </c>
       <c r="AC3" t="n">
-        <v>2944.378920332254</v>
+        <v>3253.914363237934</v>
       </c>
       <c r="AD3" t="n">
-        <v>2378986.937142395</v>
+        <v>2629084.086721261</v>
       </c>
       <c r="AE3" t="n">
-        <v>3255034.880894832</v>
+        <v>3597228.83445619</v>
       </c>
       <c r="AF3" t="n">
         <v>3.569372006810367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.775</v>
       </c>
       <c r="AH3" t="n">
-        <v>2944378.920332254</v>
+        <v>3253914.363237934</v>
       </c>
     </row>
     <row r="4">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1920.683879152773</v>
+        <v>2141.852403347284</v>
       </c>
       <c r="AB4" t="n">
-        <v>2627.964418049305</v>
+        <v>2930.576950118888</v>
       </c>
       <c r="AC4" t="n">
-        <v>2377.155182361905</v>
+        <v>2650.886799090123</v>
       </c>
       <c r="AD4" t="n">
-        <v>1920683.879152773</v>
+        <v>2141852.403347284</v>
       </c>
       <c r="AE4" t="n">
-        <v>2627964.418049305</v>
+        <v>2930576.950118888</v>
       </c>
       <c r="AF4" t="n">
         <v>4.009562656443816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>2377155.182361905</v>
+        <v>2650886.799090123</v>
       </c>
     </row>
     <row r="5">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1701.174223917293</v>
+        <v>1922.341737081946</v>
       </c>
       <c r="AB5" t="n">
-        <v>2327.6216236736</v>
+        <v>2630.232772407529</v>
       </c>
       <c r="AC5" t="n">
-        <v>2105.476682747658</v>
+        <v>2379.207048163835</v>
       </c>
       <c r="AD5" t="n">
-        <v>1701174.223917293</v>
+        <v>1922341.737081946</v>
       </c>
       <c r="AE5" t="n">
-        <v>2327621.6236736</v>
+        <v>2630232.772407529</v>
       </c>
       <c r="AF5" t="n">
         <v>4.222698445297957e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.92083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2105476.682747658</v>
+        <v>2379207.048163835</v>
       </c>
     </row>
     <row r="6">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1668.419546949933</v>
+        <v>1880.03495575993</v>
       </c>
       <c r="AB6" t="n">
-        <v>2282.805229612495</v>
+        <v>2572.346767759282</v>
       </c>
       <c r="AC6" t="n">
-        <v>2064.93750243554</v>
+        <v>2326.845602555699</v>
       </c>
       <c r="AD6" t="n">
-        <v>1668419.546949933</v>
+        <v>1880034.95575993</v>
       </c>
       <c r="AE6" t="n">
-        <v>2282805.229612495</v>
+        <v>2572346.767759282</v>
       </c>
       <c r="AF6" t="n">
         <v>4.260540922094509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.54166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2064937.502435541</v>
+        <v>2326845.602555699</v>
       </c>
     </row>
     <row r="7">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1675.291026639177</v>
+        <v>1886.906435449174</v>
       </c>
       <c r="AB7" t="n">
-        <v>2292.207091271607</v>
+        <v>2581.748629418394</v>
       </c>
       <c r="AC7" t="n">
-        <v>2073.442063613503</v>
+        <v>2335.350163733661</v>
       </c>
       <c r="AD7" t="n">
-        <v>1675291.026639177</v>
+        <v>1886906.435449174</v>
       </c>
       <c r="AE7" t="n">
-        <v>2292207.091271607</v>
+        <v>2581748.629418394</v>
       </c>
       <c r="AF7" t="n">
         <v>4.260540922094509e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.54166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2073442.063613503</v>
+        <v>2335350.163733661</v>
       </c>
     </row>
   </sheetData>
@@ -22054,28 +22054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7719.509622766799</v>
+        <v>8206.122080931969</v>
       </c>
       <c r="AB2" t="n">
-        <v>10562.17362659913</v>
+        <v>11227.97825968728</v>
       </c>
       <c r="AC2" t="n">
-        <v>9554.134599779896</v>
+        <v>10156.39577314876</v>
       </c>
       <c r="AD2" t="n">
-        <v>7719509.622766799</v>
+        <v>8206122.080931969</v>
       </c>
       <c r="AE2" t="n">
-        <v>10562173.62659913</v>
+        <v>11227978.25968728</v>
       </c>
       <c r="AF2" t="n">
         <v>1.698318652729968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.43333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>9554134.599779896</v>
+        <v>10156395.77314876</v>
       </c>
     </row>
     <row r="3">
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3050.650335895536</v>
+        <v>3332.935540053813</v>
       </c>
       <c r="AB3" t="n">
-        <v>4174.034374766785</v>
+        <v>4560.269444640441</v>
       </c>
       <c r="AC3" t="n">
-        <v>3775.670392332923</v>
+        <v>4125.043729222149</v>
       </c>
       <c r="AD3" t="n">
-        <v>3050650.335895536</v>
+        <v>3332935.540053813</v>
       </c>
       <c r="AE3" t="n">
-        <v>4174034.374766785</v>
+        <v>4560269.444640441</v>
       </c>
       <c r="AF3" t="n">
         <v>2.949752716671699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.51666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3775670.392332923</v>
+        <v>4125043.729222149</v>
       </c>
     </row>
     <row r="4">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2391.04473652649</v>
+        <v>2624.649307749824</v>
       </c>
       <c r="AB4" t="n">
-        <v>3271.532893964717</v>
+        <v>3591.160974218828</v>
       </c>
       <c r="AC4" t="n">
-        <v>2959.302386189856</v>
+        <v>3248.425611065331</v>
       </c>
       <c r="AD4" t="n">
-        <v>2391044.73652649</v>
+        <v>2624649.307749825</v>
       </c>
       <c r="AE4" t="n">
-        <v>3271532.893964717</v>
+        <v>3591160.974218829</v>
       </c>
       <c r="AF4" t="n">
         <v>3.407249340549895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2959302.386189856</v>
+        <v>3248425.611065331</v>
       </c>
     </row>
     <row r="5">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2088.250639225605</v>
+        <v>2312.152036044906</v>
       </c>
       <c r="AB5" t="n">
-        <v>2857.23665170467</v>
+        <v>3163.588420665504</v>
       </c>
       <c r="AC5" t="n">
-        <v>2584.545995822803</v>
+        <v>2861.659981921303</v>
       </c>
       <c r="AD5" t="n">
-        <v>2088250.639225605</v>
+        <v>2312152.036044906</v>
       </c>
       <c r="AE5" t="n">
-        <v>2857236.65170467</v>
+        <v>3163588.420665503</v>
       </c>
       <c r="AF5" t="n">
         <v>3.654470454312253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2584545.995822803</v>
+        <v>2861659.981921303</v>
       </c>
     </row>
     <row r="6">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1919.256948825446</v>
+        <v>2133.354697044079</v>
       </c>
       <c r="AB6" t="n">
-        <v>2626.012029023733</v>
+        <v>2918.9500134625</v>
       </c>
       <c r="AC6" t="n">
-        <v>2375.389126604738</v>
+        <v>2640.369520949712</v>
       </c>
       <c r="AD6" t="n">
-        <v>1919256.948825446</v>
+        <v>2133354.697044079</v>
       </c>
       <c r="AE6" t="n">
-        <v>2626012.029023733</v>
+        <v>2918950.0134625</v>
       </c>
       <c r="AF6" t="n">
         <v>3.804218060581662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.04999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>2375389.126604738</v>
+        <v>2640369.520949712</v>
       </c>
     </row>
     <row r="7">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1811.715675683653</v>
+        <v>2016.111260528106</v>
       </c>
       <c r="AB7" t="n">
-        <v>2478.869314725002</v>
+        <v>2758.532371205978</v>
       </c>
       <c r="AC7" t="n">
-        <v>2242.289506442581</v>
+        <v>2495.261913322578</v>
       </c>
       <c r="AD7" t="n">
-        <v>1811715.675683653</v>
+        <v>2016111.260528106</v>
       </c>
       <c r="AE7" t="n">
-        <v>2478869.314725002</v>
+        <v>2758532.371205978</v>
       </c>
       <c r="AF7" t="n">
         <v>3.887935226291332e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.12083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2242289.506442581</v>
+        <v>2495261.913322578</v>
       </c>
     </row>
     <row r="8">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1784.081849351632</v>
+        <v>1998.212751959189</v>
       </c>
       <c r="AB8" t="n">
-        <v>2441.059494419155</v>
+        <v>2734.042842155516</v>
       </c>
       <c r="AC8" t="n">
-        <v>2208.088202320308</v>
+        <v>2473.109630553422</v>
       </c>
       <c r="AD8" t="n">
-        <v>1784081.849351632</v>
+        <v>1998212.751959189</v>
       </c>
       <c r="AE8" t="n">
-        <v>2441059.494419155</v>
+        <v>2734042.842155516</v>
       </c>
       <c r="AF8" t="n">
         <v>3.907980181461253e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.90416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2208088.202320308</v>
+        <v>2473109.630553422</v>
       </c>
     </row>
     <row r="9">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1790.388571343052</v>
+        <v>2004.519473950609</v>
       </c>
       <c r="AB9" t="n">
-        <v>2449.688629680753</v>
+        <v>2742.671977417115</v>
       </c>
       <c r="AC9" t="n">
-        <v>2215.893785023608</v>
+        <v>2480.915213256721</v>
       </c>
       <c r="AD9" t="n">
-        <v>1790388.571343052</v>
+        <v>2004519.473950609</v>
       </c>
       <c r="AE9" t="n">
-        <v>2449688.629680753</v>
+        <v>2742671.977417115</v>
       </c>
       <c r="AF9" t="n">
         <v>3.907587143124588e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.90833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2215893.785023608</v>
+        <v>2480915.213256721</v>
       </c>
     </row>
   </sheetData>
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1559.191531254263</v>
+        <v>1848.07261986429</v>
       </c>
       <c r="AB2" t="n">
-        <v>2133.354639737722</v>
+        <v>2528.614489708127</v>
       </c>
       <c r="AC2" t="n">
-        <v>1929.750267103195</v>
+        <v>2287.287071743108</v>
       </c>
       <c r="AD2" t="n">
-        <v>1559191.531254263</v>
+        <v>1848072.61986429</v>
       </c>
       <c r="AE2" t="n">
-        <v>2133354.639737722</v>
+        <v>2528614.489708127</v>
       </c>
       <c r="AF2" t="n">
         <v>6.423147486246337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1929750.267103195</v>
+        <v>2287287.071743108</v>
       </c>
     </row>
   </sheetData>
@@ -23390,28 +23390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2687.44689351334</v>
+        <v>2980.114906351728</v>
       </c>
       <c r="AB2" t="n">
-        <v>3677.083401494432</v>
+        <v>4077.524688261411</v>
       </c>
       <c r="AC2" t="n">
-        <v>3326.147722474631</v>
+        <v>3688.37145485543</v>
       </c>
       <c r="AD2" t="n">
-        <v>2687446.89351334</v>
+        <v>2980114.906351728</v>
       </c>
       <c r="AE2" t="n">
-        <v>3677083.401494432</v>
+        <v>4077524.688261411</v>
       </c>
       <c r="AF2" t="n">
         <v>3.620611315746658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.82083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3326147.722474631</v>
+        <v>3688371.45485543</v>
       </c>
     </row>
     <row r="3">
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1629.30978253847</v>
+        <v>1846.399778103819</v>
       </c>
       <c r="AB3" t="n">
-        <v>2229.293524543699</v>
+        <v>2526.325633810879</v>
       </c>
       <c r="AC3" t="n">
-        <v>2016.532879394361</v>
+        <v>2285.216661040265</v>
       </c>
       <c r="AD3" t="n">
-        <v>1629309.78253847</v>
+        <v>1846399.778103819</v>
       </c>
       <c r="AE3" t="n">
-        <v>2229293.524543699</v>
+        <v>2526325.63381088</v>
       </c>
       <c r="AF3" t="n">
         <v>4.762676363944132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.47916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2016532.879394361</v>
+        <v>2285216.661040265</v>
       </c>
     </row>
     <row r="4">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1536.082107127267</v>
+        <v>1743.763160250882</v>
       </c>
       <c r="AB4" t="n">
-        <v>2101.735306131327</v>
+        <v>2385.893685256483</v>
       </c>
       <c r="AC4" t="n">
-        <v>1901.148638318182</v>
+        <v>2158.187340558422</v>
       </c>
       <c r="AD4" t="n">
-        <v>1536082.107127267</v>
+        <v>1743763.160250882</v>
       </c>
       <c r="AE4" t="n">
-        <v>2101735.306131327</v>
+        <v>2385893.685256483</v>
       </c>
       <c r="AF4" t="n">
         <v>4.903030284296121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.175</v>
       </c>
       <c r="AH4" t="n">
-        <v>1901148.638318182</v>
+        <v>2158187.340558422</v>
       </c>
     </row>
     <row r="5">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1541.782287717336</v>
+        <v>1749.463340840952</v>
       </c>
       <c r="AB5" t="n">
-        <v>2109.53454468888</v>
+        <v>2393.692923814035</v>
       </c>
       <c r="AC5" t="n">
-        <v>1908.203528494101</v>
+        <v>2165.242230734342</v>
       </c>
       <c r="AD5" t="n">
-        <v>1541782.287717336</v>
+        <v>1749463.340840952</v>
       </c>
       <c r="AE5" t="n">
-        <v>2109534.54468888</v>
+        <v>2393692.923814035</v>
       </c>
       <c r="AF5" t="n">
         <v>4.907188918973215e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.13750000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>1908203.528494101</v>
+        <v>2165242.230734342</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3852.611330966716</v>
+        <v>4196.521126297554</v>
       </c>
       <c r="AB2" t="n">
-        <v>5271.312788245341</v>
+        <v>5741.865342446388</v>
       </c>
       <c r="AC2" t="n">
-        <v>4768.226094068971</v>
+        <v>5193.869772921709</v>
       </c>
       <c r="AD2" t="n">
-        <v>3852611.330966716</v>
+        <v>4196521.126297554</v>
       </c>
       <c r="AE2" t="n">
-        <v>5271312.788245341</v>
+        <v>5741865.342446389</v>
       </c>
       <c r="AF2" t="n">
         <v>2.772626159287577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.55416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4768226.094068971</v>
+        <v>5193869.772921709</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2071.609830940185</v>
+        <v>2310.449364249462</v>
       </c>
       <c r="AB3" t="n">
-        <v>2834.467963667909</v>
+        <v>3161.258749998398</v>
       </c>
       <c r="AC3" t="n">
-        <v>2563.950319416216</v>
+        <v>2859.552651752953</v>
       </c>
       <c r="AD3" t="n">
-        <v>2071609.830940185</v>
+        <v>2310449.364249462</v>
       </c>
       <c r="AE3" t="n">
-        <v>2834467.963667909</v>
+        <v>3161258.749998398</v>
       </c>
       <c r="AF3" t="n">
         <v>3.971011656181658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.56666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2563950.319416216</v>
+        <v>2859552.651752953</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1689.848031349101</v>
+        <v>1909.54350334135</v>
       </c>
       <c r="AB4" t="n">
-        <v>2312.124627325449</v>
+        <v>2612.721664385421</v>
       </c>
       <c r="AC4" t="n">
-        <v>2091.458697980803</v>
+        <v>2363.367175714363</v>
       </c>
       <c r="AD4" t="n">
-        <v>1689848.031349101</v>
+        <v>1909543.50334135</v>
       </c>
       <c r="AE4" t="n">
-        <v>2312124.627325449</v>
+        <v>2612721.664385421</v>
       </c>
       <c r="AF4" t="n">
         <v>4.388988521262907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.94166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2091458.697980803</v>
+        <v>2363367.175714363</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1617.15857073931</v>
+        <v>1827.265940393513</v>
       </c>
       <c r="AB5" t="n">
-        <v>2212.667700486458</v>
+        <v>2500.145872930294</v>
       </c>
       <c r="AC5" t="n">
-        <v>2001.493800650652</v>
+        <v>2261.535459794598</v>
       </c>
       <c r="AD5" t="n">
-        <v>1617158.57073931</v>
+        <v>1827265.940393513</v>
       </c>
       <c r="AE5" t="n">
-        <v>2212667.700486458</v>
+        <v>2500145.872930294</v>
       </c>
       <c r="AF5" t="n">
         <v>4.483415188457342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.01666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2001493.800650652</v>
+        <v>2261535.459794598</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1624.650791916408</v>
+        <v>1834.758161570611</v>
       </c>
       <c r="AB6" t="n">
-        <v>2222.918888034434</v>
+        <v>2510.39706047827</v>
       </c>
       <c r="AC6" t="n">
-        <v>2010.766629246681</v>
+        <v>2270.808288390626</v>
       </c>
       <c r="AD6" t="n">
-        <v>1624650.791916408</v>
+        <v>1834758.161570611</v>
       </c>
       <c r="AE6" t="n">
-        <v>2222918.888034434</v>
+        <v>2510397.06047827</v>
       </c>
       <c r="AF6" t="n">
         <v>4.482952312637762e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2010766.629246681</v>
+        <v>2270808.288390626</v>
       </c>
     </row>
   </sheetData>
